--- a/data_config/LinkGroupEffect.xlsx
+++ b/data_config/LinkGroupEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="13635" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>-1</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>14100501</v>

--- a/data_config/LinkGroupEffect.xlsx
+++ b/data_config/LinkGroupEffect.xlsx
@@ -1208,9 +1208,9 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
